--- a/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_LayerCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/wronglyClassifications/Data_Full_LayerCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.218612998304597</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2171558271020601</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2841505293207736</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.3023849273624539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2190096063772055</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006614809584064932</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006611640296110472</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.00675735104196157</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006645082801041531</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006612367688777532</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01616580030782003</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0160576313331705</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02103079319179882</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0210995035179246</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01616729479477543</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004673712451595961</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004679367663333282</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004419364428527577</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004294521434912721</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004670997048599764</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005073078317715724</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005081976458285254</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004672876774790549</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004518530674792944</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005069721206112988</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006479338914856931</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006462720463433031</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.007226768093898509</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.007005518666607606</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006474526619505985</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006507660322892895</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006520435036810414</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005933106551767445</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.005792327978461741</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006504598312373212</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2653113524872472</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2658126989183153</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2427628645547546</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.2379385908241261</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2652064219103415</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1774782140960246</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1779984756548617</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1540790019859788</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1640288023555258</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1776946276644013</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.00255545442857045</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002561120166079242</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.002300632999856213</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002127860947024644</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002551696542474212</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.02004583099533724</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.02007005472642837</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01895634780698669</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01734281549811863</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.02001073579023925</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002615768615670607</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002615319654545407</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002635961029311666</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002507629300297048</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002612977330782411</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01991015634305546</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.0199523655591437</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01801176046223086</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01690043482975739</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.01988598440625074</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2366165738078447</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2372040239794511</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.2101954959172775</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.190076332904249</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2361789710722428</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003176051736389165</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003184078304347504</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002815049923007667</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002875820969816778</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003177373539702344</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002828136214938122</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002836240157822622</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002463654397550006</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002489170825850013</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002828691211128547</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002358320703397285</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002381850890960904</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001300030233079015</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001228402344710796</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002356762757876637</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005091828019598658</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.004950271921368622</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01145843556861379</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01184918294408429</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005100326987489341</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>7.40276618828499e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>7.567165038080947e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>8.786195565401663e-09</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.094720450242004e-07</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>7.404956160260018e-06</v>
       </c>
     </row>
